--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints9.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints9.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>4.366285669593473e-06</v>
+        <v>2.285904017916113e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>4.439420146678918e-06</v>
+        <v>2.381732305264942e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>4.508357440524392e-06</v>
+        <v>2.469703002220623e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>4.573601332339562e-06</v>
+        <v>2.550496119143832e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>4.635655603334096e-06</v>
+        <v>2.624791666395245e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>4.695024034717658e-06</v>
+        <v>2.693269654335534e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>4.75221040769992e-06</v>
+        <v>2.756610093325379e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>4.807718503490545e-06</v>
+        <v>2.815492993725451e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>4.862052103299204e-06</v>
+        <v>2.870598365896426e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>4.915714988335561e-06</v>
+        <v>2.922606220198981e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>4.96921093980926e-06</v>
+        <v>2.972196566993766e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>5.023043738930018e-06</v>
+        <v>3.020049416641505e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>5.077717166907478e-06</v>
+        <v>3.066844779502846e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>5.133735004951304e-06</v>
+        <v>3.113262665938467e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>5.191601034271166e-06</v>
+        <v>3.15998308630904e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>5.251819036076733e-06</v>
+        <v>3.207686050975245e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>5.314892791577669e-06</v>
+        <v>3.257051570297752e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>5.381326081983642e-06</v>
+        <v>3.308759654637239e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>5.45162268850432e-06</v>
+        <v>3.363490314354382e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>5.526286392349369e-06</v>
+        <v>3.421923559809852e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>5.605820974728459e-06</v>
+        <v>3.484739401364328e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>5.690730216851254e-06</v>
+        <v>3.552617849378484e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>5.781517899927425e-06</v>
+        <v>3.626238914212995e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>5.878687805166635e-06</v>
+        <v>3.706282606228536e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>5.982743713778555e-06</v>
+        <v>3.793428935785781e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>6.094189406972849e-06</v>
+        <v>3.888357913245408e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>6.213528665959186e-06</v>
+        <v>3.99174954896809e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>6.341265271947233e-06</v>
+        <v>4.104283853314502e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>6.477903006146588e-06</v>
+        <v>4.226640836645258e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>6.623945649767055e-06</v>
+        <v>4.359500509321152e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>6.779896984018231e-06</v>
+        <v>4.503542881702801e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>6.946260790109784e-06</v>
+        <v>4.65944796415088e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>7.123540849251387e-06</v>
+        <v>4.827895767026066e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>7.312240942652703e-06</v>
+        <v>5.009566300689034e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>7.512864851523397e-06</v>
+        <v>5.205139575500455e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>7.725916357073141e-06</v>
+        <v>5.415295601821009e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>7.951899240511602e-06</v>
+        <v>5.640714390011371e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>8.191317283048443e-06</v>
+        <v>5.882075950432212e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>8.444674265893332e-06</v>
+        <v>6.14006029344421e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>8.712473970255944e-06</v>
+        <v>6.41534742940804e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>8.995220177345937e-06</v>
+        <v>6.708617368684377e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>9.293416668372982e-06</v>
+        <v>7.020550121633896e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>9.607567224546746e-06</v>
+        <v>7.351825698617272e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>9.938175627076893e-06</v>
+        <v>7.703124109995178e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02857456571731e-05</v>
+        <v>8.075125366128292e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>1.065078109604502e-05</v>
+        <v>8.468509477377291e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>1.103378572490233e-05</v>
+        <v>8.883956454102848e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>1.143527038956878e-05</v>
+        <v>9.322151936535952e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>1.185746739269595e-05</v>
+        <v>9.785153413206542e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>1.23065660108075e-05</v>
+        <v>1.027817172960739e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>1.278930940562798e-05</v>
+        <v>1.080685912857471e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>1.331244073888196e-05</v>
+        <v>1.137686785294473e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>1.388270317229399e-05</v>
+        <v>1.199385014555366e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>1.450683986758866e-05</v>
+        <v>1.266345824923774e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>1.519159398649049e-05</v>
+        <v>1.339134440683318e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>1.594370869072407e-05</v>
+        <v>1.41831608611762e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>1.676992714201394e-05</v>
+        <v>1.504455985510304e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>1.767699250208469e-05</v>
+        <v>1.59811936314499e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.867164793266086e-05</v>
+        <v>1.699871443305301e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.976063659546701e-05</v>
+        <v>1.810277450274858e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.095070165222771e-05</v>
+        <v>1.929902608337286e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.224858626466751e-05</v>
+        <v>2.059312141776205e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>2.3661033594511e-05</v>
+        <v>2.199071274875238e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>2.51947868034827e-05</v>
+        <v>2.349745231918007e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>2.68565890533072e-05</v>
+        <v>2.511899237188134e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>2.865318350570815e-05</v>
+        <v>2.686098514969154e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>3.059622229056804e-05</v>
+        <v>2.873420182933275e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>3.274996214582544e-05</v>
+        <v>3.080426819282787e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>3.521059299673409e-05</v>
+        <v>3.317010905152246e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>3.807475373884296e-05</v>
+        <v>3.593111739035453e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>4.143908326770101e-05</v>
+        <v>3.918668619426208e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>4.540022047885716e-05</v>
+        <v>4.303620844818311e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>5.005480426786034e-05</v>
+        <v>4.757907713705565e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>5.549947353025952e-05</v>
+        <v>5.291468524581768e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>6.183086716160364e-05</v>
+        <v>5.914242575940723e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>6.914562405744166e-05</v>
+        <v>6.636169166276231e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>7.754038311332244e-05</v>
+        <v>7.467187594082087e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>8.711178322479504e-05</v>
+        <v>8.417237157852102e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>9.795646328740831e-05</v>
+        <v>9.496257156080067e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001101710621967112</v>
+        <v>0.0001071418688725978</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001238296325878246</v>
+        <v>0.0001207868052469059</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0001387507513205363</v>
+        <v>0.0001357154492920304</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>0.000154591477264126</v>
+        <v>0.0001515824566287023</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0001710063219903211</v>
+        <v>0.0001680399056941332</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0001876497970708411</v>
+        <v>0.0001847398749255269</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0002041764140774299</v>
+        <v>0.0002013344427601114</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002202406845818071</v>
+        <v>0.0002174756876350904</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002354971201557</v>
+        <v>0.0002328156879876756</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002496002323708364</v>
+        <v>0.0002470065222550787</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002622045327989437</v>
+        <v>0.0002597002688745115</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0002729645330117496</v>
+        <v>0.0002705490062831858</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0002815347445809816</v>
+        <v>0.0002792048129183132</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0002875696790783673</v>
+        <v>0.0002853197672171056</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0002907238480756341</v>
+        <v>0.0002885459476167745</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>0.000290683944795449</v>
+        <v>0.0002885677816947803</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0002875212496171655</v>
+        <v>0.000285456285768013</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0002815602301357095</v>
+        <v>0.000279536981081065</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0002731298073090766</v>
+        <v>0.0002711398654191141</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0002625589020952627</v>
+        <v>0.0002605949365673379</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0002501764354522635</v>
+        <v>0.0002482321923109143</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0002363113283380749</v>
+        <v>0.0002343816304350211</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0002212925017106929</v>
+        <v>0.000219373248724836</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.000205448876528121</v>
+        <v>0.0002035370449655446</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0001891093737483395</v>
+        <v>0.0001872030169423092</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0001726029143293519</v>
+        <v>0.0001707011624403152</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0001562584192291539</v>
+        <v>0.0001543614792447401</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0001404048094057414</v>
+        <v>0.0001385139651407619</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0001253710058171103</v>
+        <v>0.0001234886179135583</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001114859294212563</v>
+        <v>0.0001096154353483071</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>9.905469193281931e-05</v>
+        <v>9.720017496996391e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>8.804799083211379e-05</v>
+        <v>8.620812619448856e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>7.818982398087125e-05</v>
+        <v>7.635341283540068e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>6.919843342513187e-05</v>
+        <v>6.734429869344834e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>6.083101950904102e-05</v>
+        <v>5.893044306512088e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>5.306964778404499e-05</v>
+        <v>5.110043782825556e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>4.597688654256363e-05</v>
+        <v>4.392841378392855e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>3.961540630880486e-05</v>
+        <v>3.748861036053684e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>3.404727896524698e-05</v>
+        <v>3.185460709224588e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>2.928844794496399e-05</v>
+        <v>2.704913524093593e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>2.527677221794624e-05</v>
+        <v>2.300885207095635e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>2.194256043328687e-05</v>
+        <v>1.966209198348247e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.921612124008016e-05</v>
+        <v>1.693718937969078e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>1.702776328741664e-05</v>
+        <v>1.476247866075399e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>1.530779522439087e-05</v>
+        <v>1.306629422784887e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>1.398652570009598e-05</v>
+        <v>1.177697048215075e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.29942633636251e-05</v>
+        <v>1.082284182483494e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.226131686407133e-05</v>
+        <v>1.013224265707676e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>1.171799485052781e-05</v>
+        <v>9.633507380051511e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>1.129460597208764e-05</v>
+        <v>9.254970394934524e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>1.092145887784396e-05</v>
+        <v>8.924966102901107e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.052886221688987e-05</v>
+        <v>8.571828905126578e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.004714982959925e-05</v>
+        <v>8.123920185181868e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>9.441510989787254e-06</v>
+        <v>7.546935001891003e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>8.781163551838064e-06</v>
+        <v>6.917993487891658e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>8.154647770436434e-06</v>
+        <v>6.334912010144539e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>7.650503900267125e-06</v>
+        <v>5.895506935610355e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>7.35449412516765e-06</v>
+        <v>5.694310598037044e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>7.294161327214617e-06</v>
+        <v>5.75703270888515e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>7.441818193706185e-06</v>
+        <v>6.044093862103885e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>7.767597683158425e-06</v>
+        <v>6.513337934881473e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>8.241632754087936e-06</v>
+        <v>7.122608804406864e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>8.834056365010865e-06</v>
+        <v>7.829750347868357e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>9.515001474443475e-06</v>
+        <v>8.592606442454434e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.025460104090204e-05</v>
+        <v>9.36902096535358e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.102298802290283e-05</v>
+        <v>1.011683779375428e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.179030061785246e-05</v>
+        <v>1.07939090166144e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.253816590971466e-05</v>
+        <v>1.137609513316615e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.328406070917921e-05</v>
+        <v>1.189544978058388e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>1.405243479000361e-05</v>
+        <v>1.239495646110129e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>1.486773792594534e-05</v>
+        <v>1.291759867695205e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.57544198907619e-05</v>
+        <v>1.350635993036988e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>1.673693045821078e-05</v>
+        <v>1.420422372358844e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>1.783971940204946e-05</v>
+        <v>1.505417355884144e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.908723649603545e-05</v>
+        <v>1.609919293836256e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>2.050393151392623e-05</v>
+        <v>1.738226536438549e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>2.211907231496076e-05</v>
+        <v>1.894827297760504e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>2.399395739065874e-05</v>
+        <v>2.085472006720539e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>2.620295188036559e-05</v>
+        <v>2.316426002987725e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>2.882045946811055e-05</v>
+        <v>2.5939561451419e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>3.192088383792127e-05</v>
+        <v>2.924329291762731e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>3.557862867382999e-05</v>
+        <v>3.313812301430374e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>3.986809765986458e-05</v>
+        <v>3.76867203272452e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>4.486369448005429e-05</v>
+        <v>4.295175344225009e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>5.063982281842838e-05</v>
+        <v>4.89958909451168e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>5.727088635901617e-05</v>
+        <v>5.588180142164375e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>6.483128878584687e-05</v>
+        <v>6.367215345762928e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>7.339543378294972e-05</v>
+        <v>7.24296156388718e-05</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>8.303772503435403e-05</v>
+        <v>8.22168565511697e-05</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>9.383250392411963e-05</v>
+        <v>9.309648595196425e-05</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0001057679116760448</v>
+        <v>0.0001050497168682828</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0001185748188553396</v>
+        <v>0.0001178148278549084</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0001319363102492703</v>
+        <v>0.0001310849745100882</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0001455354706451036</v>
+        <v>0.0001445533124320692</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0001590553848301059</v>
+        <v>0.0001579129972190985</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0001721791375915438</v>
+        <v>0.0001708571844694233</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0001845898137166836</v>
+        <v>0.0001830790297812906</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0001959704979927869</v>
+        <v>0.0001942716887529424</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>0.000206004275207131</v>
+        <v>0.0002041283169826366</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0002143776432426632</v>
+        <v>0.0002123453859027237</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0002209256956926087</v>
+        <v>0.0002187637281852827</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0002256863026279613</v>
+        <v>0.0002234211745426695</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0002287119127215585</v>
+        <v>0.000226369718848692</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0002300549746462382</v>
+        <v>0.0002276613549771581</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0002297679370748382</v>
+        <v>0.0002273480768018756</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>0.000227903248680196</v>
+        <v>0.0002254818781966523</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0002245133581351497</v>
+        <v>0.0002221147530352963</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0002196507141125367</v>
+        <v>0.0002172986951916153</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0002133678302151003</v>
+        <v>0.0002110857615243642</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0002057584814193017</v>
+        <v>0.0002035680342924292</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0001970283751496958</v>
+        <v>0.0001949461752957747</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0001874020167625071</v>
+        <v>0.0001854390811789407</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0001771039116139605</v>
+        <v>0.0001752656485864674</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001663585650602808</v>
+        <v>0.0001646447741628948</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001553904824576926</v>
+        <v>0.0001537953545527629</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001444241691624207</v>
+        <v>0.0001429362864006118</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>0.00013368413053069</v>
+        <v>0.0001322864663509816</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001233948719187299</v>
+        <v>0.0001220647910484172</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001137524166579486</v>
+        <v>0.0001124627831397495</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001047896628341595</v>
+        <v>0.0001035151860355047</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>9.648153547322045e-05</v>
+        <v>9.520102539367546e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>8.880289003641192e-05</v>
+        <v>8.749926001392495e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>8.172858198501411e-05</v>
+        <v>8.038884869591639e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>7.52334667803074e-05</v>
+        <v>7.384875023931314e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>6.929239988357211e-05</v>
+        <v>6.785792344377846e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>6.388023675608851e-05</v>
+        <v>6.23953271089756e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>5.89718328591369e-05</v>
+        <v>5.74399200345678e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>5.454205575942993e-05</v>
+        <v>5.297060422162797e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>5.056614015874381e-05</v>
+        <v>4.896455907647801e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>4.70197452055743e-05</v>
+        <v>4.539697250486226e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>4.387855369183971e-05</v>
+        <v>4.22429214777782e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>4.111824840945824e-05</v>
+        <v>3.94774829662232e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>3.871451215034817e-05</v>
+        <v>3.707573394119468e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>3.664302770642774e-05</v>
+        <v>3.501275137369006e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>3.487947786961598e-05</v>
+        <v>3.326361223470752e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>3.339954543182944e-05</v>
+        <v>3.18033934952428e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>3.217891318498729e-05</v>
+        <v>3.060717212629422e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>3.119326392100778e-05</v>
+        <v>2.96500250988592e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>3.041828043180916e-05</v>
+        <v>2.890702938393516e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>2.982964550930968e-05</v>
+        <v>2.835326195251951e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>2.940304194542759e-05</v>
+        <v>2.796379977560965e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>2.911415253208114e-05</v>
+        <v>2.771371982420301e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>2.893866006118858e-05</v>
+        <v>2.757809906929701e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>2.885224732466815e-05</v>
+        <v>2.753201448188903e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>2.883059711443811e-05</v>
+        <v>2.755054303297652e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>2.88493922224167e-05</v>
+        <v>2.760876169355688e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>2.888431544052216e-05</v>
+        <v>2.76817474346275e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>2.891104956067276e-05</v>
+        <v>2.774457722718584e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>2.890527737478673e-05</v>
+        <v>2.777232804222928e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>2.884268167478233e-05</v>
+        <v>2.774007685075524e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>2.869894525257781e-05</v>
+        <v>2.762290062376113e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>2.844975090009141e-05</v>
+        <v>2.739587633224438e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>2.807078140924138e-05</v>
+        <v>2.703408094720238e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>2.753771957194597e-05</v>
+        <v>2.651259143963256e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>2.682624818012382e-05</v>
+        <v>2.580648478053272e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>2.591242376937155e-05</v>
+        <v>2.489122357438046e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>2.479690953844435e-05</v>
+        <v>2.376765989361818e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>2.351981958721134e-05</v>
+        <v>2.247735175214658e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>2.212481957862858e-05</v>
+        <v>2.106552171182398e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>2.065557517565217e-05</v>
+        <v>1.957739233450864e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>1.915575204123815e-05</v>
+        <v>1.805818618205888e-05</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>1.766901583834259e-05</v>
+        <v>1.655312581633299e-05</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>1.623903222992156e-05</v>
+        <v>1.510743379918926e-05</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>1.490946687893111e-05</v>
+        <v>1.376633269248599e-05</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>1.372398544832734e-05</v>
+        <v>1.257504505808147e-05</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>1.272625360106628e-05</v>
+        <v>1.157879345783398e-05</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.195993700010401e-05</v>
+        <v>1.082280045360184e-05</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.146870130839659e-05</v>
+        <v>1.035228860724333e-05</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.12962121889001e-05</v>
+        <v>1.021248048061675e-05</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.148568889960122e-05</v>
+        <v>1.044813429693658e-05</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.204731505380036e-05</v>
+        <v>1.106964547545319e-05</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.29361088735381e-05</v>
+        <v>1.203002785429555e-05</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.410184810178328e-05</v>
+        <v>1.327684426384846e-05</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.549431048150351e-05</v>
+        <v>1.475765753449536e-05</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>1.706327375566676e-05</v>
+        <v>1.642003049662012e-05</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.8758515667241e-05</v>
+        <v>1.821152598060659e-05</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>2.052981395919419e-05</v>
+        <v>2.00797068168386e-05</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.232694637449429e-05</v>
+        <v>2.197213583570001e-05</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>2.409969065610928e-05</v>
+        <v>2.383637586757467e-05</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>2.579782454700711e-05</v>
+        <v>2.561998974284642e-05</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.737112579015575e-05</v>
+        <v>2.727054029189911e-05</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.876937212852316e-05</v>
+        <v>2.873559034511658e-05</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>2.994234130507732e-05</v>
+        <v>2.996270273288269e-05</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>3.084109833913063e-05</v>
+        <v>3.09007897297079e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>3.144973194087024e-05</v>
+        <v>3.153338214860213e-05</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>3.178737195319626e-05</v>
+        <v>3.188074421334069e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>3.187483942851996e-05</v>
+        <v>3.196491303255887e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>3.173295541925261e-05</v>
+        <v>3.180792571489193e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>3.138254097780547e-05</v>
+        <v>3.143181936897515e-05</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>3.084441715658981e-05</v>
+        <v>3.085863110344385e-05</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>3.013940500801693e-05</v>
+        <v>3.01103980269333e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>2.928832558449808e-05</v>
+        <v>2.920915724807878e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>2.831199993844455e-05</v>
+        <v>2.817694587551559e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>2.723124912226758e-05</v>
+        <v>2.703580101787899e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>2.606689418837846e-05</v>
+        <v>2.580775978380428e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>2.483975618918848e-05</v>
+        <v>2.451485928192675e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>2.357065617710888e-05</v>
+        <v>2.317913662088168e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>2.228041520455094e-05</v>
+        <v>2.182262890930436e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>2.098985432392719e-05</v>
+        <v>2.046737325583137e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.971979458764516e-05</v>
+        <v>1.913540676909409e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.849105704812102e-05</v>
+        <v>1.784876655773293e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.73244627577624e-05</v>
+        <v>1.662948973037937e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>1.623942885172306e-05</v>
+        <v>1.549812007826268e-05</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>1.524072427840766e-05</v>
+        <v>1.445962042292062e-05</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.432440543748619e-05</v>
+        <v>1.350968623013586e-05</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.34864133413303e-05</v>
+        <v>1.264389023063661e-05</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.272268900231161e-05</v>
+        <v>1.185780515515111e-05</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.20291734328018e-05</v>
+        <v>1.114700373440756e-05</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.140180764517251e-05</v>
+        <v>1.05070586991342e-05</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.083653265179537e-05</v>
+        <v>9.933542780059237e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.032928946504204e-05</v>
+        <v>9.422028707910902e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>9.876019097284167e-06</v>
+        <v>8.96808921341742e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>9.472662560893398e-06</v>
+        <v>8.567297027307009e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>9.115160868241379e-06</v>
+        <v>8.215224880307889e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>8.799455031699759e-06</v>
+        <v>7.907445503148287e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>8.521486063640184e-06</v>
+        <v>7.639531626556419e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>8.277194976434302e-06</v>
+        <v>7.407055981260511e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>8.062522782453759e-06</v>
+        <v>7.205591297988784e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>7.873410494070206e-06</v>
+        <v>7.030710307469458e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>7.705799123655284e-06</v>
+        <v>6.877985740430761e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>7.555634315396855e-06</v>
+        <v>6.742995376909003e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>7.419882633660505e-06</v>
+        <v>6.62242993844925e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>7.297807895047928e-06</v>
+        <v>6.515484463217361e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>7.188987785483345e-06</v>
+        <v>6.421696149525479e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>7.092999990890973e-06</v>
+        <v>6.340602195685747e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>7.009422197195026e-06</v>
+        <v>6.271739800010311e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>6.937832090319725e-06</v>
+        <v>6.214646160811311e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>6.877807356189289e-06</v>
+        <v>6.168858476400895e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>6.828925680727931e-06</v>
+        <v>6.133913945091202e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>6.790764749859874e-06</v>
+        <v>6.109349765194381e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>6.762902249509333e-06</v>
+        <v>6.094703135022572e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>6.744915865600527e-06</v>
+        <v>6.089511252887919e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>6.736383284057671e-06</v>
+        <v>6.093311317102566e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>6.736882190804983e-06</v>
+        <v>6.105640525978654e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>6.745990271766685e-06</v>
+        <v>6.12603607782833e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>6.763285212866969e-06</v>
+        <v>6.154035170963706e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>6.788344700030117e-06</v>
+        <v>6.189175003697018e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>6.820746419180252e-06</v>
+        <v>6.230992774340274e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>6.860068056241669e-06</v>
+        <v>6.279025681205728e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>6.905887297138565e-06</v>
+        <v>6.332810922605486e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>6.957781827795151e-06</v>
+        <v>6.391885696851694e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>7.015329334135653e-06</v>
+        <v>6.455787202256494e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>7.078107502084282e-06</v>
+        <v>6.52405263713203e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>7.145694017565256e-06</v>
+        <v>6.596219199790446e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>7.217666566502797e-06</v>
+        <v>6.671824088543884e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>7.29360283482112e-06</v>
+        <v>6.750404501704491e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>7.373080508444438e-06</v>
+        <v>6.831497637584404e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>7.455677273296976e-06</v>
+        <v>6.914640694495774e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>7.54097081530295e-06</v>
+        <v>6.999370870750739e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>7.628538820386576e-06</v>
+        <v>7.085225364661447e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>7.717958974472073e-06</v>
+        <v>7.171741374540039e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>7.808808963483658e-06</v>
+        <v>7.258456098698658e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>7.900666473345546e-06</v>
+        <v>7.344906735449449e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>7.993109189981961e-06</v>
+        <v>7.430630483104556e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>8.085714799317114e-06</v>
+        <v>7.515164539976121e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>8.17806098727523e-06</v>
+        <v>7.59804610437629e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>8.269725439780521e-06</v>
+        <v>7.678812374617204e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>8.360285842757204e-06</v>
+        <v>7.757000549011005e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>8.449826991146287e-06</v>
+        <v>7.832684235830827e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>8.543157975898997e-06</v>
+        <v>7.910934310908872e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>8.647658634036518e-06</v>
+        <v>7.999540934794122e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>8.770734539652041e-06</v>
+        <v>8.106321492204974e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>8.919791266838751e-06</v>
+        <v>8.239093367859822e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>9.102234389689841e-06</v>
+        <v>8.405673946477071e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>9.325469482298489e-06</v>
+        <v>8.613880612775109e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>9.596902118757899e-06</v>
+        <v>8.871530751472342e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>9.923937873161245e-06</v>
+        <v>9.186441747287162e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.031398231960172e-05</v>
+        <v>9.566430984937967e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.077444103217252e-05</v>
+        <v>1.001931584914316e-05</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.131271958496682e-05</v>
+        <v>1.055291372462113e-05</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.193622355207782e-05</v>
+        <v>1.117504199609028e-05</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.26523585075987e-05</v>
+        <v>1.1893518048269e-05</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.346853002562181e-05</v>
+        <v>1.271615926587485e-05</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.439214368024286e-05</v>
+        <v>1.365078303362878e-05</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.543060504555146e-05</v>
+        <v>1.470520673624554e-05</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.659131969564364e-05</v>
+        <v>1.588724775844641e-05</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.788169320461163e-05</v>
+        <v>1.720472348494885e-05</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.930913114654863e-05</v>
+        <v>1.866545130047124e-05</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>2.088103909554782e-05</v>
+        <v>2.027724858973199e-05</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>2.26048226257024e-05</v>
+        <v>2.204793273744947e-05</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>2.448788731110554e-05</v>
+        <v>2.398532112834211e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>2.653758240449916e-05</v>
+        <v>2.609717201263763e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>2.874654683234599e-05</v>
+        <v>2.837579856276996e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>3.107312118807838e-05</v>
+        <v>3.077750248468351e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>3.3470767275942e-05</v>
+        <v>3.325346300932811e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>3.589294690018258e-05</v>
+        <v>3.575485936765357e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>3.829312186504577e-05</v>
+        <v>3.823287079060973e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>4.062475397477725e-05</v>
+        <v>4.063867650914637e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>4.284130503362276e-05</v>
+        <v>4.292345575421332e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>4.489623684582793e-05</v>
+        <v>4.503838775676039e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>4.674301121563847e-05</v>
+        <v>4.693465174773739e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>4.833508994730006e-05</v>
+        <v>4.856342695809417e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>4.96259348450584e-05</v>
+        <v>4.987589261878048e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>5.056900771315916e-05</v>
+        <v>5.082322796074618e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>5.111777035584803e-05</v>
+        <v>5.13566122149411e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>5.122653323054231e-05</v>
+        <v>5.142812564652136e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>5.089309306224602e-05</v>
+        <v>5.103601887139839e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>5.017869193219355e-05</v>
+        <v>5.024590387065704e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>4.914959180284994e-05</v>
+        <v>4.912872234646499e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>4.787205463668028e-05</v>
+        <v>4.775541600099e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>4.641234239614961e-05</v>
+        <v>4.619692653639978e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>4.483671704372304e-05</v>
+        <v>4.452419565486202e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>4.321144054186561e-05</v>
+        <v>4.280816505854447e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>4.160277485304242e-05</v>
+        <v>4.111977644961482e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>4.007698193971852e-05</v>
+        <v>3.95299715302408e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>3.869304665971516e-05</v>
+        <v>3.810180551398003e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>3.746040657973383e-05</v>
+        <v>3.68446372383994e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>3.636784732283107e-05</v>
+        <v>3.574544420586398e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>3.540408614252715e-05</v>
+        <v>3.47911298239449e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>3.455784029234233e-05</v>
+        <v>3.396859750021326e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>3.381782702579691e-05</v>
+        <v>3.32647506422402e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>3.317276359641174e-05</v>
+        <v>3.266649265759734e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>3.261136725770584e-05</v>
+        <v>3.216072695385466e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>3.212235526320017e-05</v>
+        <v>3.17343569385839e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>3.169444486641501e-05</v>
+        <v>3.13742860193562e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>3.131635332087061e-05</v>
+        <v>3.106741760374264e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>3.097679788008727e-05</v>
+        <v>3.080065509931437e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>3.066449579758525e-05</v>
+        <v>3.056090191364247e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>3.036816432688484e-05</v>
+        <v>3.03350614542981e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>3.00765207215063e-05</v>
+        <v>3.011003712885234e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>2.977828223496991e-05</v>
+        <v>2.987273234487633e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>2.946216612079594e-05</v>
+        <v>2.961005050994117e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>2.911688963250467e-05</v>
+        <v>2.930889503161798e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>2.87314165403953e-05</v>
+        <v>2.89564438603153e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>2.830329056506325e-05</v>
+        <v>2.854943033617812e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>2.784065304282407e-05</v>
+        <v>2.809639023934083e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>2.735230101081572e-05</v>
+        <v>2.76065895962321e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>2.684703150617619e-05</v>
+        <v>2.708929443328058e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>2.633364156604342e-05</v>
+        <v>2.65537707769149e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>2.582092822755539e-05</v>
+        <v>2.600928465356374e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>2.531768852785006e-05</v>
+        <v>2.546510208965572e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>2.48327195040654e-05</v>
+        <v>2.493048911161951e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>2.437481819333937e-05</v>
+        <v>2.441471174588375e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>2.395278163280994e-05</v>
+        <v>2.39270360188771e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>2.357540685961508e-05</v>
+        <v>2.347672795702821e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>2.324972498085079e-05</v>
+        <v>2.307152752246362e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>2.29739618473199e-05</v>
+        <v>2.271156543629769e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>2.274360432373257e-05</v>
+        <v>2.239460546919901e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>2.255413840349579e-05</v>
+        <v>2.211841063888189e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>2.240105008001653e-05</v>
+        <v>2.188074396306057e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>2.227982534670178e-05</v>
+        <v>2.167936845944933e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>2.218595019695852e-05</v>
+        <v>2.151204714576245e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>2.211501750441162e-05</v>
+        <v>2.137657504209021e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>2.206462365195572e-05</v>
+        <v>2.127134706491432e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>2.203414438018706e-05</v>
+        <v>2.119529091101371e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>2.202301728167985e-05</v>
+        <v>2.114735279706079e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>2.20306799490083e-05</v>
+        <v>2.112647893972802e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>2.205656997474662e-05</v>
+        <v>2.113161555568786e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>2.210012495146896e-05</v>
+        <v>2.116170886161271e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>2.216078247174962e-05</v>
+        <v>2.121570507417507e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>2.223798012816278e-05</v>
+        <v>2.129255041004738e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>2.233115551328262e-05</v>
+        <v>2.139119108590207e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>2.243974621968339e-05</v>
+        <v>2.151057331841162e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>2.256318983993926e-05</v>
+        <v>2.164964332424845e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>2.270092396662447e-05</v>
+        <v>2.1807347320085e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>2.28523861923132e-05</v>
+        <v>2.198263152259375e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>2.301701410957967e-05</v>
+        <v>2.217444214844712e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>2.319424531099808e-05</v>
+        <v>2.238172541431758e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>2.338351738914265e-05</v>
+        <v>2.260342753687754e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>2.35842679365876e-05</v>
+        <v>2.283849473279949e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>2.37959345459071e-05</v>
+        <v>2.308587321875585e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>2.40179548096754e-05</v>
+        <v>2.334450921141909e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>2.424976632046667e-05</v>
+        <v>2.361334892746162e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>2.449080667085515e-05</v>
+        <v>2.389133858355593e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>2.474051345341502e-05</v>
+        <v>2.417742439637444e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>2.49983242607205e-05</v>
+        <v>2.447055258258961e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>2.52636766853458e-05</v>
+        <v>2.476966935887388e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>2.553600831986514e-05</v>
+        <v>2.50737209418997e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>2.58147567568527e-05</v>
+        <v>2.538165354833952e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>2.609935958888272e-05</v>
+        <v>2.569241339486579e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>2.638934704285064e-05</v>
+        <v>2.60050664179e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>2.668558937144249e-05</v>
+        <v>2.632041039093211e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>2.698996532158078e-05</v>
+        <v>2.664054645617409e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>2.73043782844542e-05</v>
+        <v>2.696760760586197e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>2.763073165125147e-05</v>
+        <v>2.730372683223182e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>2.797092881316126e-05</v>
+        <v>2.765103712751967e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>2.832687316137227e-05</v>
+        <v>2.801167148396156e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>2.870046808707318e-05</v>
+        <v>2.838776289379353e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>2.909361698145269e-05</v>
+        <v>2.878144434925164e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>2.95082232356995e-05</v>
+        <v>2.91948488425719e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>2.99461902410023e-05</v>
+        <v>2.963010936599038e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>3.040942138854977e-05</v>
+        <v>3.008935891174311e-05</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>3.089982006953062e-05</v>
+        <v>3.057473047206614e-05</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>3.141928967513352e-05</v>
+        <v>3.108835703919549e-05</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>3.19697335965472e-05</v>
+        <v>3.163237160536722e-05</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>3.255305522495973e-05</v>
+        <v>3.220890716281681e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>3.317115795156095e-05</v>
+        <v>3.28200967037814e-05</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>3.3825945167539e-05</v>
+        <v>3.34680732204965e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>3.451932026408259e-05</v>
+        <v>3.415496970519813e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>3.525318663238038e-05</v>
+        <v>3.488291915012236e-05</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>3.602944766362107e-05</v>
+        <v>3.56540545475052e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>3.685000674899339e-05</v>
+        <v>3.647050888958274e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>3.771676727968598e-05</v>
+        <v>3.733441516859098e-05</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>3.863163264688756e-05</v>
+        <v>3.824790637676597e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>3.959650624178682e-05</v>
+        <v>3.921311550634377e-05</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>4.061329145557247e-05</v>
+        <v>4.023217554956041e-05</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>4.168389167943316e-05</v>
+        <v>4.130721949865192e-05</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>4.281021030455761e-05</v>
+        <v>4.244038034585436e-05</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>4.399415072213451e-05</v>
+        <v>4.363379108340377e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>4.523761632335254e-05</v>
+        <v>4.488958470353618e-05</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>4.654251049940043e-05</v>
+        <v>4.620989419848766e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>4.791073664146683e-05</v>
+        <v>4.759685256049422e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>4.934419814074045e-05</v>
+        <v>4.905259278179193e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>5.084479838840997e-05</v>
+        <v>5.05792478546168e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>5.24144407756641e-05</v>
+        <v>5.217895077120489e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>5.405502869369153e-05</v>
+        <v>5.385383452379225e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>5.576846553368094e-05</v>
+        <v>5.560603210461492e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>5.755664616944254e-05</v>
+        <v>5.743766216201218e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>5.942093534424702e-05</v>
+        <v>5.934995056519876e-05</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>6.136186493145012e-05</v>
+        <v>6.134272056871584e-05</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>6.337989383836361e-05</v>
+        <v>6.341567254687792e-05</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>6.547548097229928e-05</v>
+        <v>6.556850687399949e-05</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>6.764908524056884e-05</v>
+        <v>6.780092392439506e-05</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>6.99011655504841e-05</v>
+        <v>7.011262407237915e-05</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>7.223218080935682e-05</v>
+        <v>7.250330769226626e-05</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>7.464258992449876e-05</v>
+        <v>7.49726751583709e-05</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>7.713285180322173e-05</v>
+        <v>7.752042684500758e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>7.970342535283747e-05</v>
+        <v>8.014626312649087e-05</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>8.235476948065774e-05</v>
+        <v>8.284988437713513e-05</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>8.508734309399432e-05</v>
+        <v>8.563099097125498e-05</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>8.790160510015895e-05</v>
+        <v>8.848928328316494e-05</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>9.079801440646346e-05</v>
+        <v>9.142446168717942e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>9.377702992021667e-05</v>
+        <v>9.443622655761009e-05</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>9.683911054873607e-05</v>
+        <v>9.752427826877721e-05</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>9.998471519933065e-05</v>
+        <v>0.0001006883171949924</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>0.0001032143027793122</v>
+        <v>0.0001039280437105703</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>0.0001065284381468495</v>
+        <v>0.0001072432941124559</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>0.0001099307341543693</v>
+        <v>0.0001106378149198337</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>0.0001134282356144626</v>
+        <v>0.0001141197554577408</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>0.000117028170422801</v>
+        <v>0.00011769749992552</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>0.0001207377664750565</v>
+        <v>0.0001213794325225143</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>0.0001245642516669012</v>
+        <v>0.0001251739374480666</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>0.0001285148538940067</v>
+        <v>0.0001290893989015198</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>0.0001325968010520451</v>
+        <v>0.0001331342010822169</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>0.0001368173210366883</v>
+        <v>0.0001373167281895006</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>0.000141183641743608</v>
+        <v>0.000141645364422714</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>0.0001457029910684764</v>
+        <v>0.0001461284939811999</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>0.0001503825969069652</v>
+        <v>0.0001507745010643013</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>0.0001552296871547463</v>
+        <v>0.000155591769871361</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>0.0001602514897074917</v>
+        <v>0.000160588684601722</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>0.0001654552324608733</v>
+        <v>0.0001657736294547272</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>0.0001708476724975323</v>
+        <v>0.0001711544980779018</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>0.0001764184603218914</v>
+        <v>0.0001767213603490501</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>0.0001821356927000915</v>
+        <v>0.0001824418287694716</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>0.0001879660912376629</v>
+        <v>0.0001882820830263907</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>0.0001938763775401361</v>
+        <v>0.0001942083028070316</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>0.0001998332732130412</v>
+        <v>0.0002001866677986187</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>0.0002058034998619087</v>
+        <v>0.0002061833576883765</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>0.000211753779092269</v>
+        <v>0.0002121645521635292</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>0.0002176508325096525</v>
+        <v>0.0002180964309113011</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>0.0002234613817195894</v>
+        <v>0.0002239451736189166</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>0.0002291525646226475</v>
+        <v>0.0002296773927936446</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>0.0002347064281848606</v>
+        <v>0.000235275201829868</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>0.0002401236801668132</v>
+        <v>0.0002407401156646382</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>0.0002454062068400987</v>
+        <v>0.0002460748745275075</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>0.0002505558944763113</v>
+        <v>0.0002512822186480286</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0002555746293470444</v>
+        <v>0.0002563648882557543</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>0.0002604642977238921</v>
+        <v>0.000261325623580237</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>0.0002652267858784479</v>
+        <v>0.0002661671648510296</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>0.0002698639800823014</v>
+        <v>0.00027089225229768</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>0.0002743777666070553</v>
+        <v>0.0002755036261497503</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>0.0002787700317242986</v>
+        <v>0.0002800040266367882</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0002830426617056254</v>
+        <v>0.0002843961939883465</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0002871975428226293</v>
+        <v>0.0002886828684339778</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>0.000291232090848846</v>
+        <v>0.0002928612943168804</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0002951190897510685</v>
+        <v>0.000296898434430233</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0002988228856021485</v>
+        <v>0.0003007508782921183</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>0.0003023078170088341</v>
+        <v>0.0003043752062420324</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>0.000305538222577874</v>
+        <v>0.0003077279986194713</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>0.0003084784409160165</v>
+        <v>0.0003107658357639313</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>0.00031109281063001</v>
+        <v>0.0003134452980149079</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>0.0003133456703266029</v>
+        <v>0.0003157229657118977</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>0.0003152013586125436</v>
+        <v>0.0003175554191943962</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>0.0003166242140945805</v>
+        <v>0.0003188992388018996</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>0.0003175785745539684</v>
+        <v>0.0003197110052877907</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>0.0003180231190136444</v>
+        <v>0.0003199501365984827</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>0.0003178973560597232</v>
+        <v>0.000319585662370214</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>0.0003171367386284857</v>
+        <v>0.000318588645664367</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>0.0003156767196562117</v>
+        <v>0.0003169301495423234</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>0.000313452752079182</v>
+        <v>0.0003145812370654654</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>0.0003104045748985204</v>
+        <v>0.0003115161268142082</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>0.0003065985085476818</v>
+        <v>0.0003078022301071858</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>0.0003022452948259391</v>
+        <v>0.0003036132852518336</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>0.0002975635490394405</v>
+        <v>0.0002991288272482895</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>0.0002927718864943345</v>
+        <v>0.0002945283910966918</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>0.0002880604141080078</v>
+        <v>0.0002899677538577022</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>0.0002834508038609934</v>
+        <v>0.0002854623245386012</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>0.0002789030894997556</v>
+        <v>0.000280976144900113</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>0.000274377212677908</v>
+        <v>0.0002764731799558544</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>0.0002698331150490642</v>
+        <v>0.0002719173947194426</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>0.0002652307382668378</v>
+        <v>0.0002672727542044941</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>0.0002605300239848426</v>
+        <v>0.0002625032234246262</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>0.0002556909138566922</v>
+        <v>0.0002575727673934558</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>0.0002506733495360003</v>
+        <v>0.0002524453511245997</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>0.0002454372726763856</v>
+        <v>0.00024708493963168</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>0.0002399426249314463</v>
+        <v>0.0002414554979282978</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>0.0002341572169460388</v>
+        <v>0.000235528829131265</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>0.0002281167747707847</v>
+        <v>0.0002293443851757036</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>0.0002218917518562318</v>
+        <v>0.0002229762090816539</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>0.0002155528815178264</v>
+        <v>0.0002164986226355041</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>0.000209170897071039</v>
+        <v>0.0002099859476236668</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>0.0002028165318313337</v>
+        <v>0.0002035125058325483</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>0.000196560519114175</v>
+        <v>0.000197152619048555</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>0.0001904735922350271</v>
+        <v>0.0001909806090580933</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>0.0001846264845093543</v>
+        <v>0.0001850707976475696</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>0.0001790887743056091</v>
+        <v>0.0001794962623998102</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>0.0001738874622131707</v>
+        <v>0.000174284212624372</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>0.0001689955451468034</v>
+        <v>0.0001694036804464052</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>0.0001643825393373414</v>
+        <v>0.000164819948313055</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>0.0001600179610156189</v>
+        <v>0.000160498298671467</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>0.0001558713264124702</v>
+        <v>0.0001564040139687866</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>0.0001519121517587293</v>
+        <v>0.0001525023766521591</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>0.0001481099532852306</v>
+        <v>0.0001487586691687302</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>0.0001444342472228081</v>
+        <v>0.000145138173965645</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>0.0001408545498022961</v>
+        <v>0.0001416061734900492</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>0.0001373403772545288</v>
+        <v>0.000138127950189088</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>0.0001338612458103404</v>
+        <v>0.0001346687865099071</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>0.000130386671700565</v>
+        <v>0.0001311939648996517</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>0.0001268861711560368</v>
+        <v>0.0001276687678054674</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>0.0001233292986748203</v>
+        <v>0.0001240585203037108</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>0.0001197214724968586</v>
+        <v>0.0001203684992265485</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>0.0001161705173372661</v>
+        <v>0.0001167180609269935</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>0.0001128024177017185</v>
+        <v>0.0001132467915355462</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>0.0001097431580958916</v>
+        <v>0.0001100942771827071</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>0.0001071187230254613</v>
+        <v>0.0001074001039989768</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>0.0001050550969961036</v>
+        <v>0.0001053038581148555</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>0.0001036782645134942</v>
+        <v>0.0001039451256608439</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>0.0001030135140027319</v>
+        <v>0.0001033524819076145</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>0.0001025723829190225</v>
+        <v>0.0001029881251965871</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>0.0001018250871724999</v>
+        <v>0.0001022680659425235</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>0.0001007973870470191</v>
+        <v>0.0001012178827583871</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>9.967299734289851e-05</v>
+        <v>0.000100036469136441</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>9.863564387964625e-05</v>
+        <v>9.892273065970441e-05</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>9.786905247677739e-05</v>
+        <v>9.807557291120395e-05</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>9.755694895380059e-05</v>
+        <v>9.769390147395931e-05</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>9.788305913022808e-05</v>
+        <v>9.797662193099437e-05</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>9.902408953695818e-05</v>
+        <v>9.911495681581743e-05</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>0.000100981069315881</v>
+        <v>0.0001011078387943039</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>0.000103571058700938</v>
+        <v>0.0001037528350796791</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>0.0001066024392279703</v>
+        <v>0.0001068380135083938</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>0.0001098835924328189</v>
+        <v>0.0001101514419168985</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>0.0001132301626083762</v>
+        <v>0.0001134914859106995</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>0.000116509679419914</v>
+        <v>0.000116730078692062</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>0.0001196122449406588</v>
+        <v>0.0001197711585878199</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>0.0001224280538777924</v>
+        <v>0.0001225187952692918</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>0.0001248473009384972</v>
+        <v>0.0001248770584077963</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>0.0001267607173921918</v>
+        <v>0.0001267504665998378</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>0.0001281012351769408</v>
+        <v>0.0001280788464485569</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>0.0001288737103662162</v>
+        <v>0.0001288622012777902</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>0.0001290900153386514</v>
+        <v>0.000129106404738958</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>0.00012876202247288</v>
+        <v>0.0001288173304834807</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>0.0001279016041475355</v>
+        <v>0.0001280008521627784</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>0.0001265221146290421</v>
+        <v>0.0001266645440427705</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>0.0001246592152178683</v>
+        <v>0.0001248415799427038</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>0.0001223658078014313</v>
+        <v>0.0001225849189802254</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>0.0001196952417348102</v>
+        <v>0.0001199480337868927</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>0.0001167008663730842</v>
+        <v>0.0001169843969942628</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>0.0001134360310713325</v>
+        <v>0.0001137474812338931</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>0.0001099540851846342</v>
+        <v>0.000110290759137341</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>0.0001063083780680686</v>
+        <v>0.0001066677033361636</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>0.0001025522590767147</v>
+        <v>0.0001029317864619184</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>9.873897397165406e-05</v>
+        <v>9.913637715885277e-05</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>9.490983935253014e-05</v>
+        <v>9.532286961872843e-05</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>9.108332245492177e-05</v>
+        <v>9.150972191782556e-05</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>8.727530922606542e-05</v>
+        <v>8.771280104379105e-05</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>8.350168561319766e-05</v>
+        <v>8.394797398427182e-05</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>7.977833756355502e-05</v>
+        <v>8.023110772691472e-05</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>7.612115102437406e-05</v>
+        <v>7.657806925936669e-05</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>7.254601194289466e-05</v>
+        <v>7.300472556927795e-05</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>6.906880626634316e-05</v>
+        <v>6.952694364428521e-05</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>6.570541994196951e-05</v>
+        <v>6.61605904720488e-05</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>6.247173891699724e-05</v>
+        <v>6.292153304020257e-05</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>5.938364913867539e-05</v>
+        <v>5.982563833640593e-05</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>5.645703655423131e-05</v>
+        <v>5.68887733482966e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>5.370778711090458e-05</v>
+        <v>5.412680506352449e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>5.115177325226045e-05</v>
+        <v>5.155558720787174e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>4.879844501013814e-05</v>
+        <v>4.918466609974832e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>4.664057360393249e-05</v>
+        <v>4.70072079080101e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>4.466825775141637e-05</v>
+        <v>4.50137541556398e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>4.287159617036275e-05</v>
+        <v>4.319484636562019e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>4.124068757854449e-05</v>
+        <v>4.154102606093399e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>3.97656306937345e-05</v>
+        <v>4.004283476456394e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>3.843652423370571e-05</v>
+        <v>3.869081399949282e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>3.724346691623102e-05</v>
+        <v>3.747550528870334e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>3.617655745908332e-05</v>
+        <v>3.638745015517825e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>3.522589458003554e-05</v>
+        <v>3.541719012190028e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>3.438157699686057e-05</v>
+        <v>3.45552667118522e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>3.363370342733134e-05</v>
+        <v>3.379222144801674e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>3.297237258922073e-05</v>
+        <v>3.311859585337664e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>3.238838500832291e-05</v>
+        <v>3.252544708471645e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>3.187797906837286e-05</v>
+        <v>3.200782761275121e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>3.143993224471999e-05</v>
+        <v>3.156265543469694e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>3.107303634098962e-05</v>
+        <v>3.118685907506951e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>3.077608316080712e-05</v>
+        <v>3.087736705838471e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>3.054786450779786e-05</v>
+        <v>3.063110790915842e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>3.038717218558719e-05</v>
+        <v>3.044501015190644e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>3.029279799780047e-05</v>
+        <v>3.031600231114458e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>3.026353374806306e-05</v>
+        <v>3.02410129113887e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>3.028946566174045e-05</v>
+        <v>3.021032008904571e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>3.03148799169731e-05</v>
+        <v>3.017921428868156e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>3.026905427498153e-05</v>
+        <v>3.009152068576248e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>3.008125779140796e-05</v>
+        <v>2.989105780536657e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>2.96807719200676e-05</v>
+        <v>2.952165564910799e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>2.910839858929562e-05</v>
+        <v>2.903037465032996e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>2.875076172487472e-05</v>
+        <v>2.878045628449033e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>2.860924731926632e-05</v>
+        <v>2.87297484618074e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>2.837142183103494e-05</v>
+        <v>2.851331874109687e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>2.788774074882148e-05</v>
+        <v>2.796580396593572e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>2.728493639154174e-05</v>
+        <v>2.725842653078925e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>2.671529315093807e-05</v>
+        <v>2.659353868817138e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>2.632248816590637e-05</v>
+        <v>2.616178457617918e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>2.610818078576882e-05</v>
+        <v>2.596062700556576e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>2.595751809790246e-05</v>
+        <v>2.582904164626945e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>2.575971028874788e-05</v>
+        <v>2.561267070339957e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>2.548735006307957e-05</v>
+        <v>2.528323777525192e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>2.51650382036609e-05</v>
+        <v>2.489110705602673e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>2.481815304626644e-05</v>
+        <v>2.448781350076376e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>2.446378489007927e-05</v>
+        <v>2.410903686986678e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>2.40963758364384e-05</v>
+        <v>2.374713042765046e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>2.370653467489529e-05</v>
+        <v>2.338711422943341e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>2.328487019500139e-05</v>
+        <v>2.301400833053421e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>2.282199118630813e-05</v>
+        <v>2.261283278627149e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>2.230850643836697e-05</v>
+        <v>2.216860765196384e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>2.173502474072935e-05</v>
+        <v>2.166635298292987e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>2.109215488294672e-05</v>
+        <v>2.10910888344882e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>2.037050565457051e-05</v>
+        <v>2.042783526195741e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>1.957120219343958e-05</v>
+        <v>1.967265311386942e-05</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.877685404097845e-05</v>
+        <v>1.890715122799262e-05</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.810811814038282e-05</v>
+        <v>1.825288324838922e-05</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.768586613906361e-05</v>
+        <v>1.78316282305264e-05</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>1.763096968443179e-05</v>
+        <v>1.776516522987134e-05</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>1.806427958247752e-05</v>
+        <v>1.817525271528137e-05</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>1.906457045773108e-05</v>
+        <v>1.914208740503762e-05</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>2.058029559005749e-05</v>
+        <v>2.061713800471163e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>2.253475372498042e-05</v>
+        <v>2.252702622934779e-05</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>2.485124360802355e-05</v>
+        <v>2.479837379399047e-05</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>2.745306398471057e-05</v>
+        <v>2.735780241368404e-05</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>3.026351360056519e-05</v>
+        <v>3.01319338034729e-05</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>3.320589120111109e-05</v>
+        <v>3.304738967840141e-05</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>3.620349553187195e-05</v>
+        <v>3.603079175351395e-05</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>3.917847110441609e-05</v>
+        <v>3.900722453170732e-05</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>4.204002465439982e-05</v>
+        <v>4.188454194819146e-05</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>4.46892384632923e-05</v>
+        <v>4.455977776639931e-05</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>4.702706905927742e-05</v>
+        <v>4.692979827116867e-05</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>4.895447297052286e-05</v>
+        <v>4.889146974732097e-05</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>5.037298224143363e-05</v>
+        <v>5.034224758688472e-05</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>5.124880684204373e-05</v>
+        <v>5.124579249403887e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>5.167118800660695e-05</v>
+        <v>5.16917018534098e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>5.174314855046039e-05</v>
+        <v>5.178368008643219e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>5.156771128894221e-05</v>
+        <v>5.162543161454197e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>5.124736246345607e-05</v>
+        <v>5.132012204044188e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>5.084487982857035e-05</v>
+        <v>5.09310423564712e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>5.035673293650481e-05</v>
+        <v>5.045489794712345e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>4.977309234043541e-05</v>
+        <v>4.988206884549836e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>4.908412859353815e-05</v>
+        <v>4.920293508469566e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>4.828001224898906e-05</v>
+        <v>4.840787669781515e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>4.735091385996412e-05</v>
+        <v>4.748727371795654e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>4.628912025631504e-05</v>
+        <v>4.643360260598194e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>4.510443537110428e-05</v>
+        <v>4.525669263011962e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>4.381531388593342e-05</v>
+        <v>4.397494267031771e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>4.244027167422902e-05</v>
+        <v>4.260681222442095e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>4.099782460941766e-05</v>
+        <v>4.117076079027403e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>3.950648856492588e-05</v>
+        <v>3.968524786572177e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>3.798477941418025e-05</v>
+        <v>3.816873294860881e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>3.645121303060735e-05</v>
+        <v>3.663967553677993e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>3.492430528763369e-05</v>
+        <v>3.511653512807984e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>3.342257205868588e-05</v>
+        <v>3.361777122035328e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>3.196452921719047e-05</v>
+        <v>3.216184331144497e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>3.0568692636574e-05</v>
+        <v>3.076721089919965e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>2.925273490564613e-05</v>
+        <v>2.945149472975104e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>2.802259921102812e-05</v>
+        <v>2.822064919607383e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>2.68756333693632e-05</v>
+        <v>2.70720795238377e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>2.580898777019431e-05</v>
+        <v>2.600299457284148e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>2.48198128030644e-05</v>
+        <v>2.501060320288402e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>2.39052588575164e-05</v>
+        <v>2.409211427376414e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>2.306247632309328e-05</v>
+        <v>2.32447366452807e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>2.228861558933797e-05</v>
+        <v>2.246567917723254e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>2.158082704579342e-05</v>
+        <v>2.175215072941848e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.093626108200256e-05</v>
+        <v>2.110136016163737e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.035206808750888e-05</v>
+        <v>2.051051633368859e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>1.982539845185373e-05</v>
+        <v>1.997682810536934e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>1.935340256458207e-05</v>
+        <v>1.949750433648054e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>1.893323081523503e-05</v>
+        <v>1.906975388681917e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>1.856203359335719e-05</v>
+        <v>1.869078561618572e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>1.823696128849034e-05</v>
+        <v>1.835780838437788e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.79551642901778e-05</v>
+        <v>1.806803105119485e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.771379298796252e-05</v>
+        <v>1.781866247643548e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.750999777138745e-05</v>
+        <v>1.760691151989861e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.734092902999553e-05</v>
+        <v>1.742998704138308e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.72037371533297e-05</v>
+        <v>1.728509790068772e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.709557253093292e-05</v>
+        <v>1.71694529576114e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.701358555234812e-05</v>
+        <v>1.708026107195291e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.695492660711825e-05</v>
+        <v>1.701473110351113e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.691674608478625e-05</v>
+        <v>1.697007191208488e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.689619437489508e-05</v>
+        <v>1.6943492357473e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.689042186698767e-05</v>
+        <v>1.693220129947433e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.689657895060696e-05</v>
+        <v>1.693340759788771e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.691181601529591e-05</v>
+        <v>1.694432011251198e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.693328345059745e-05</v>
+        <v>1.696214770314597e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.695813164605455e-05</v>
+        <v>1.698409922958854e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.698351099121012e-05</v>
+        <v>1.70073835516385e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.700657187560713e-05</v>
+        <v>1.702920952909472e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.702446468878852e-05</v>
+        <v>1.704678602175602e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.703433982029723e-05</v>
+        <v>1.705732188942123e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.70333476596762e-05</v>
+        <v>1.705802599188921e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.701863859646838e-05</v>
+        <v>1.704610718895879e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.698738157663664e-05</v>
+        <v>1.701879233426231e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.693910755865324e-05</v>
+        <v>1.697559868335389e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.687799901921287e-05</v>
+        <v>1.692055398706792e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.68087819262568e-05</v>
+        <v>1.685821301012667e-05</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.673618224772636e-05</v>
+        <v>1.679313051725237e-05</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.666492595156282e-05</v>
+        <v>1.672986127316727e-05</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.659973900570749e-05</v>
+        <v>1.667296004259362e-05</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.654534737810166e-05</v>
+        <v>1.662698159025367e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.650647703668663e-05</v>
+        <v>1.659648068086967e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.648785394940369e-05</v>
+        <v>1.658601207916385e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.649420408419412e-05</v>
+        <v>1.660013054985845e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.653025340899928e-05</v>
+        <v>1.66433908576758e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.660072789176031e-05</v>
+        <v>1.672034776733796e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.671035350041879e-05</v>
+        <v>1.683555604356749e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.686385620291558e-05</v>
+        <v>1.699357045108618e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.706596196719237e-05</v>
+        <v>1.719894575461668e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.732139676119032e-05</v>
+        <v>1.74562367188811e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.763488655285073e-05</v>
+        <v>1.776999810860169e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.801115731011488e-05</v>
+        <v>1.81447846885007e-05</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.845493500092409e-05</v>
+        <v>1.858515122330038e-05</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.897094559321964e-05</v>
+        <v>1.909565247772297e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.956391505494283e-05</v>
+        <v>1.968084321649072e-05</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>2.023856935403496e-05</v>
+        <v>2.034527820432587e-05</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>2.099963445843732e-05</v>
+        <v>2.109351220595068e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>2.185183633609121e-05</v>
+        <v>2.19300999860874e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>2.279990095493793e-05</v>
+        <v>2.285959630945828e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>2.384855428291876e-05</v>
+        <v>2.388655594078555e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>2.500252228797502e-05</v>
+        <v>2.501553364479146e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>2.626576388159821e-05</v>
+        <v>2.625044062076515e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>2.763379399060477e-05</v>
+        <v>2.758810350902186e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>2.909689633046166e-05</v>
+        <v>2.902095992896596e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>3.064527666097291e-05</v>
+        <v>3.054138209468518e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>3.22691407419426e-05</v>
+        <v>3.214174222026732e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>3.395869433317479e-05</v>
+        <v>3.38144125198001e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>3.570414319447354e-05</v>
+        <v>3.555176520737129e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>3.74956930856429e-05</v>
+        <v>3.734617249706866e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>3.932354976648693e-05</v>
+        <v>3.919000660297994e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>4.117791899680968e-05</v>
+        <v>4.107563973919288e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>4.30480706013351e-05</v>
+        <v>4.299404276005874e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>4.491584149762021e-05</v>
+        <v>4.492505735397452e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>4.675952405608184e-05</v>
+        <v>4.684321801896479e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>4.855738881774721e-05</v>
+        <v>4.87230265682789e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>5.028770632364356e-05</v>
+        <v>5.053898481516625e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>5.192874711479811e-05</v>
+        <v>5.226559457287622e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>5.345878173223807e-05</v>
+        <v>5.387735765465816e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>5.485608071699066e-05</v>
+        <v>5.534877587376145e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>5.609891461008312e-05</v>
+        <v>5.665435104343548e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>5.716555395254173e-05</v>
+        <v>5.776858497692863e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>5.803426928539651e-05</v>
+        <v>5.866597948749322e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>5.868333114967137e-05</v>
+        <v>5.932103638837518e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>5.9091010086396e-05</v>
+        <v>5.970825749282636e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>5.923557663659608e-05</v>
+        <v>5.980214461409471e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>5.910054913341185e-05</v>
+        <v>5.958390968770041e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>5.870194067072773e-05</v>
+        <v>5.907631427862147e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>5.806818651301731e-05</v>
+        <v>5.831800363810454e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>5.722774687082179e-05</v>
+        <v>5.734765491484191e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>5.620908195468238e-05</v>
+        <v>5.620394525752586e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>5.504065197514027e-05</v>
+        <v>5.492555181484868e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>5.375091714273671e-05</v>
+        <v>5.355115173550271e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>5.236833766801287e-05</v>
+        <v>5.211942216818021e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>5.092137376150995e-05</v>
+        <v>5.066904026157348e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>4.943828583969453e-05</v>
+        <v>4.923787118587216e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>4.79430004516806e-05</v>
+        <v>4.784616694065531e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>4.645525070950155e-05</v>
+        <v>4.649713707432958e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>4.499459802672399e-05</v>
+        <v>4.519329333951217e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>4.358060381691443e-05</v>
+        <v>4.393714748882019e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>4.223282949363942e-05</v>
+        <v>4.273121127487084e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>4.097083647046554e-05</v>
+        <v>4.157799645028124e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>3.981418616095932e-05</v>
+        <v>4.048001476766857e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>3.878243997868731e-05</v>
+        <v>3.943977797964997e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>3.789512274846123e-05</v>
+        <v>3.8459796455608e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>3.715983123243395e-05</v>
+        <v>3.754212962558641e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>3.655513174953598e-05</v>
+        <v>3.668773942632708e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>3.605525839458097e-05</v>
+        <v>3.589742401522775e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>3.563444526238258e-05</v>
+        <v>3.517198154968617e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>3.526692644775443e-05</v>
+        <v>3.451221018710012e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>3.492693604551016e-05</v>
+        <v>3.391890808486731e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>3.458870815046341e-05</v>
+        <v>3.339287340038552e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>3.423040065228167e-05</v>
+        <v>3.293497777243709e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>3.386032657205499e-05</v>
+        <v>3.254665755862659e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>3.350078046387898e-05</v>
+        <v>3.222961095043171e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>3.317413345567922e-05</v>
+        <v>3.198553757333755e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>3.290275667538125e-05</v>
+        <v>3.18161370528292e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>3.270902125091065e-05</v>
+        <v>3.17231090143918e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>3.261497652646629e-05</v>
+        <v>3.170820643325317e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>3.263237057405431e-05</v>
+        <v>3.177489017157306e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>3.276072309721676e-05</v>
+        <v>3.192864847903211e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.299884303980279e-05</v>
+        <v>3.217508744485336e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.334553934566016e-05</v>
+        <v>3.251981315825828e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>3.379962095863838e-05</v>
+        <v>3.296843170847015e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>3.435989682258583e-05</v>
+        <v>3.352654918471112e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>3.502517588135118e-05</v>
+        <v>3.419977167620362e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>3.579412301835737e-05</v>
+        <v>3.499334844840711e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>3.666196881457285e-05</v>
+        <v>3.590402233124344e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>3.762044100066608e-05</v>
+        <v>3.6919859932703e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>3.866110953563202e-05</v>
+        <v>3.802853707557663e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>3.977554437846571e-05</v>
+        <v>3.921772958265522e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>4.095531548816213e-05</v>
+        <v>4.04751132767296e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>4.219199282371627e-05</v>
+        <v>4.178836398059066e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>4.347714634412315e-05</v>
+        <v>4.314515751702925e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>4.480234600837772e-05</v>
+        <v>4.453316970883622e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>4.615935452576813e-05</v>
+        <v>4.594075648891094e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>4.754134537117858e-05</v>
+        <v>4.736125160848492e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>4.894211897679486e-05</v>
+        <v>4.879020100737596e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>5.035547861924757e-05</v>
+        <v>5.022316066188769e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>5.177522757516714e-05</v>
+        <v>5.165568654832372e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>5.319516912118417e-05</v>
+        <v>5.308333464298772e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>5.460910653392916e-05</v>
+        <v>5.450166092218333e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>5.601084309003262e-05</v>
+        <v>5.590622136221419e-05</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>5.73941820661251e-05</v>
+        <v>5.729257193938391e-05</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>5.87528041770465e-05</v>
+        <v>5.865613940456815e-05</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>6.006842447541263e-05</v>
+        <v>5.997973427796549e-05</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>6.130091931848249e-05</v>
+        <v>6.122314102295093e-05</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>6.240784092881912e-05</v>
+        <v>6.234369360589389e-05</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>6.334674152898555e-05</v>
+        <v>6.32987259931638e-05</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>6.407517334154473e-05</v>
+        <v>6.404557215113005e-05</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>6.455068858905972e-05</v>
+        <v>6.454156604616214e-05</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>6.473083949409352e-05</v>
+        <v>6.474404164462942e-05</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>6.457317827920911e-05</v>
+        <v>6.461033291290138e-05</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>6.403527742082566e-05</v>
+        <v>6.409779389887754e-05</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>6.309259643349479e-05</v>
+        <v>6.318151350022292e-05</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>6.177129625301973e-05</v>
+        <v>6.188685065272317e-05</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>6.010645932502934e-05</v>
+        <v>6.024800989506741e-05</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>5.813316809516328e-05</v>
+        <v>5.829919576595542e-05</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>5.588652118100496e-05</v>
+        <v>5.607462894551397e-05</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>5.345770720738654e-05</v>
+        <v>5.366451427782603e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>5.11195838300096e-05</v>
+        <v>5.134038282369052e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>4.918172272621825e-05</v>
+        <v>4.941041038524163e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>4.795369557335431e-05</v>
+        <v>4.818277276461133e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>4.774507171054221e-05</v>
+        <v>4.796564345762412e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>4.870894833752913e-05</v>
+        <v>4.891285921313567e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>5.041816609160627e-05</v>
+        <v>5.060591904234967e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>5.231108898774685e-05</v>
+        <v>5.249368055133205e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>5.383682046204258e-05</v>
+        <v>5.403530612771963e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>5.47234247146445e-05</v>
+        <v>5.495762898691216e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>5.499692599868702e-05</v>
+        <v>5.527338353292738e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>5.469789301819347e-05</v>
+        <v>5.500925998619297e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>5.386689447718717e-05</v>
+        <v>5.419194856713657e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>5.254450504040392e-05</v>
+        <v>5.284814675785921e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>5.081216005708092e-05</v>
+        <v>5.105433081142885e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>4.888972050390583e-05</v>
+        <v>4.905561482163762e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>4.702633233830382e-05</v>
+        <v>4.713278948355565e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>4.546864047007385e-05</v>
+        <v>4.556378713811798e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>4.429545711743454e-05</v>
+        <v>4.443473039701844e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>4.331468656141498e-05</v>
+        <v>4.352213128540605e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>4.230962364940452e-05</v>
+        <v>4.257437662374666e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>4.106765201255598e-05</v>
+        <v>4.13451466324606e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>3.947601672957977e-05</v>
+        <v>3.971740363944243e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>3.752516849764314e-05</v>
+        <v>3.770772149318472e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>3.521031632293198e-05</v>
+        <v>3.533883392606506e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>3.254488770366439e-05</v>
+        <v>3.264553114091612e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>2.960885770006114e-05</v>
+        <v>2.970664259001677e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>2.6497391793384e-05</v>
+        <v>2.661105030640602e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.330565546489473e-05</v>
+        <v>2.344763632312284e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>2.012881419585512e-05</v>
+        <v>2.030528267320621e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.706203346752693e-05</v>
+        <v>1.727287138969513e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.420047876117195e-05</v>
+        <v>1.443928450562858e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.163931555805194e-05</v>
+        <v>1.189340405404554e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>9.473709339430552e-06</v>
+        <v>9.724112067986905e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>7.797492893630772e-06</v>
+        <v>8.0191188943336e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>6.611547535271523e-06</v>
+        <v>6.784413163081553e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>5.764668284135224e-06</v>
+        <v>5.892271227983583e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>5.092627145604433e-06</v>
+        <v>5.203333986456728e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>4.498581939475647e-06</v>
+        <v>4.625483673995694e-06</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>3.99299893320379e-06</v>
+        <v>4.141831930069675e-06</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>3.593220613457585e-06</v>
+        <v>3.742658006636876e-06</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>3.296687595674851e-06</v>
+        <v>3.421606394499064e-06</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>3.091933039081546e-06</v>
+        <v>3.173827760299145e-06</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.967448356372888e-06</v>
+        <v>2.994479829666853e-06</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>2.911724960244092e-06</v>
+        <v>2.878720328231922e-06</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>2.913254263390375e-06</v>
+        <v>2.821706981624087e-06</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.960534549283355e-06</v>
+        <v>2.818598371785252e-06</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>3.044393294594656e-06</v>
+        <v>2.864843370483436e-06</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>3.161367591185305e-06</v>
+        <v>2.956602444901108e-06</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>3.308853377966484e-06</v>
+        <v>3.090143101242166e-06</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>3.484246593849377e-06</v>
+        <v>3.261732845710509e-06</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>3.684943177745164e-06</v>
+        <v>3.467639184510034e-06</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>3.90833906856503e-06</v>
+        <v>3.70412962384464e-06</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>4.151830205220155e-06</v>
+        <v>3.967471669918225e-06</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>4.412812526621724e-06</v>
+        <v>4.253932828934689e-06</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>4.688681971680917e-06</v>
+        <v>4.559780607097928e-06</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>4.976834479308914e-06</v>
+        <v>4.88128251061184e-06</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>5.274665988416903e-06</v>
+        <v>5.214706045680326e-06</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>5.579572437916063e-06</v>
+        <v>5.556318718507281e-06</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>5.888949766717576e-06</v>
+        <v>5.902388035296607e-06</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>6.200193913732625e-06</v>
+        <v>6.249181502252198e-06</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>6.510700817872392e-06</v>
+        <v>6.592966625577956e-06</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>6.817866418048059e-06</v>
+        <v>6.930010911477776e-06</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>7.119086653170809e-06</v>
+        <v>7.256581866155557e-06</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>7.411757462151825e-06</v>
+        <v>7.5689469958152e-06</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>7.693274783902289e-06</v>
+        <v>7.8633738066606e-06</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>7.96105955765028e-06</v>
+        <v>8.136216769046736e-06</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>8.213001362823599e-06</v>
+        <v>8.385460528549494e-06</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>8.447405987829568e-06</v>
+        <v>8.610537522815501e-06</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>8.662593688851496e-06</v>
+        <v>8.810930515967692e-06</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>8.856884722072522e-06</v>
+        <v>8.986122272128852e-06</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>9.028599343676496e-06</v>
+        <v>9.135595555422393e-06</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>9.176057809846055e-06</v>
+        <v>9.258833129970677e-06</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>9.297580376765096e-06</v>
+        <v>9.355317759897125e-06</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>9.391487300616451e-06</v>
+        <v>9.424532209324296e-06</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>9.45609883758375e-06</v>
+        <v>9.465959242375376e-06</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>9.489735243850202e-06</v>
+        <v>9.479081623173225e-06</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>9.490716775599117e-06</v>
+        <v>9.463382115840782e-06</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>9.45736368901381e-06</v>
+        <v>9.418343484500988e-06</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>9.387996240277594e-06</v>
+        <v>9.343448493276783e-06</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>9.280934685573779e-06</v>
+        <v>9.238179906291106e-06</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>9.134499281085684e-06</v>
+        <v>9.102020487666903e-06</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>8.94701028299661e-06</v>
+        <v>8.934453001527104e-06</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>8.71678794748988e-06</v>
+        <v>8.734960211994658e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>8.442152530748802e-06</v>
+        <v>8.503024883192501e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>8.121424288956686e-06</v>
+        <v>8.238129779243575e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>7.757256579293438e-06</v>
+        <v>7.942161006330977e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>7.407068026019215e-06</v>
+        <v>7.647380069206521e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>7.165814075633344e-06</v>
+        <v>7.406868163592332e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>7.129182721827943e-06</v>
+        <v>7.274112790413405e-06</v>
       </c>
     </row>
   </sheetData>
